--- a/Counterbalancing planning.xlsx
+++ b/Counterbalancing planning.xlsx
@@ -1347,7 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F86428-05F7-7542-9223-34A7B4EC2D35}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9571,7 +9573,7 @@
         <v>PICTURES/filler-foods/taco.jpeg</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F49" si="0">_xlfn.CONCAT("You look at a ",C3,".")</f>
+        <f t="shared" ref="F3:F48" si="0">_xlfn.CONCAT("You look at a ",C3,".")</f>
         <v>You look at a taco.</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -9755,7 +9757,7 @@
         <v>222</v>
       </c>
       <c r="H10" s="8" t="str">
-        <f t="shared" ref="H10:H25" si="1">I11</f>
+        <f t="shared" ref="H10:H24" si="1">I11</f>
         <v>PICTURES/filler-foods/cracker.jpeg</v>
       </c>
       <c r="I10" s="8" t="s">

--- a/Counterbalancing planning.xlsx
+++ b/Counterbalancing planning.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a0dba9691d9591/Cog Sci 2740/Experiment/Jacey_Nancy_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="370" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D1990F-0593-E24B-8B85-22F29B900FF5}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51916872-98D9-6A46-B7D0-DA6E0CC74FA7}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="500" windowWidth="26740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="list-1" sheetId="14" r:id="rId1"/>
-    <sheet name="list-2" sheetId="12" r:id="rId2"/>
-    <sheet name="list-3" sheetId="13" r:id="rId3"/>
-    <sheet name="list-4" sheetId="11" r:id="rId4"/>
-    <sheet name="fillers final" sheetId="15" r:id="rId5"/>
-    <sheet name="fillers-matched images" sheetId="10" r:id="rId6"/>
-    <sheet name="Conditions list" sheetId="5" r:id="rId7"/>
-    <sheet name="Objects list" sheetId="6" r:id="rId8"/>
-    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId9"/>
+    <sheet name="practice-stimuli" sheetId="16" r:id="rId1"/>
+    <sheet name="list-1" sheetId="14" r:id="rId2"/>
+    <sheet name="list-2" sheetId="12" r:id="rId3"/>
+    <sheet name="list-3" sheetId="13" r:id="rId4"/>
+    <sheet name="list-4" sheetId="11" r:id="rId5"/>
+    <sheet name="fillers final" sheetId="15" r:id="rId6"/>
+    <sheet name="fillers-matched images" sheetId="10" r:id="rId7"/>
+    <sheet name="Conditions list" sheetId="5" r:id="rId8"/>
+    <sheet name="Objects list" sheetId="6" r:id="rId9"/>
+    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="332">
   <si>
     <t>object_number</t>
   </si>
@@ -1001,6 +1002,42 @@
   </si>
   <si>
     <t>You look at some pants.</t>
+  </si>
+  <si>
+    <t>icecream</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>"You look at ice cream."</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>stapler</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>"You look at a stapler,"</t>
+  </si>
+  <si>
+    <t>"You look at chocolate."</t>
+  </si>
+  <si>
+    <t>"You look at a leaf."</t>
+  </si>
+  <si>
+    <t>"You look at shrimp."</t>
   </si>
 </sst>
 </file>
@@ -1344,11 +1381,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CDA796-DDBB-6045-9FFA-BB2A3CB3FC3E}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("PICTURES/","practice-pics/",B2,".jpeg")</f>
+        <v>PICTURES/practice-pics/icecream.jpeg</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>_xlfn.CONCAT("PICTURES/","practice-pics/","key.jpeg")</f>
+        <v>PICTURES/practice-pics/key.jpeg</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>_xlfn.CONCAT("PICTURES/","practice-pics/",B4,".jpeg")</f>
+        <v>PICTURES/practice-pics/chocolate.jpeg</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>_xlfn.CONCAT("PICTURES/","practice-pics/",B5,".jpeg")</f>
+        <v>PICTURES/practice-pics/leaf.jpeg</v>
+      </c>
+      <c r="E5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>_xlfn.CONCAT("PICTURES/","practice-pics/","blackberry.jpeg")</f>
+        <v>PICTURES/practice-pics/blackberry.jpeg</v>
+      </c>
+      <c r="E6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F86428-05F7-7542-9223-34A7B4EC2D35}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3040,7 +3325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AE38E1-EDDD-B14D-9998-AF71B71A8587}">
   <dimension ref="A1:G73"/>
   <sheetViews>
@@ -4737,7 +5022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D000B251-0F80-AD4B-B1D5-4FEC80A2ED40}">
   <dimension ref="A1:G73"/>
   <sheetViews>
@@ -6434,7 +6719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD97239-9279-0E46-89FF-3614229366F3}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
@@ -8631,7 +8916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0E07A8-53C8-894B-9787-B3B93F520B61}">
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -9489,7 +9774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627B4A16-75F3-D342-9172-E949E2E3B325}">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -10777,7 +11062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13243,7 +13528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13832,107 +14117,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Counterbalancing planning.xlsx
+++ b/Counterbalancing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/jsong_bowdoin_edu/Documents/Documents/Bowdoin/Github/Jacey_Nancy_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="470" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11101BB7-33F7-0947-82ED-ACF4E6551F03}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3971236A-93AB-624E-B516-0F50142A25D9}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="26740" windowHeight="15800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="26740" windowHeight="15800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="practice-stimuli" sheetId="16" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="list-2" sheetId="12" r:id="rId5"/>
     <sheet name="list-3 (2)" sheetId="19" r:id="rId6"/>
     <sheet name="list-3" sheetId="13" r:id="rId7"/>
-    <sheet name="list-4" sheetId="11" r:id="rId8"/>
-    <sheet name="fillers final" sheetId="15" r:id="rId9"/>
-    <sheet name="fillers-matched images" sheetId="10" r:id="rId10"/>
-    <sheet name="Conditions list" sheetId="5" r:id="rId11"/>
-    <sheet name="Objects list" sheetId="6" r:id="rId12"/>
-    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId13"/>
+    <sheet name="list-4 (2)" sheetId="20" r:id="rId8"/>
+    <sheet name="list-4" sheetId="11" r:id="rId9"/>
+    <sheet name="fillers final" sheetId="15" r:id="rId10"/>
+    <sheet name="fillers-matched images" sheetId="10" r:id="rId11"/>
+    <sheet name="Conditions list" sheetId="5" r:id="rId12"/>
+    <sheet name="Objects list" sheetId="6" r:id="rId13"/>
+    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="428">
   <si>
     <t>object_number</t>
   </si>
@@ -1805,6 +1806,864 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0E07A8-53C8-894B-9787-B3B93F520B61}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G49" sqref="A2:G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627B4A16-75F3-D342-9172-E949E2E3B325}">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -3092,7 +3951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5558,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6149,7 +7008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9651,7 +10510,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10392,7 +11251,7 @@
         <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -10415,7 +11274,7 @@
         <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -10438,7 +11297,7 @@
         <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -10461,7 +11320,7 @@
         <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -10484,7 +11343,7 @@
         <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -10507,7 +11366,7 @@
         <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -10530,7 +11389,7 @@
         <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -10553,7 +11412,7 @@
         <v>285</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -10576,7 +11435,7 @@
         <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -10599,7 +11458,7 @@
         <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -10622,7 +11481,7 @@
         <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -10645,7 +11504,7 @@
         <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -10668,7 +11527,7 @@
         <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -10691,7 +11550,7 @@
         <v>291</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -10714,7 +11573,7 @@
         <v>292</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -10737,7 +11596,7 @@
         <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -10760,7 +11619,7 @@
         <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -10783,7 +11642,7 @@
         <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -10944,7 +11803,7 @@
         <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -10967,7 +11826,7 @@
         <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -10990,7 +11849,7 @@
         <v>304</v>
       </c>
       <c r="G58" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -11013,7 +11872,7 @@
         <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -11036,7 +11895,7 @@
         <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -11059,7 +11918,7 @@
         <v>307</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -11082,7 +11941,7 @@
         <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -11105,7 +11964,7 @@
         <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -11128,7 +11987,7 @@
         <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -11151,7 +12010,7 @@
         <v>311</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -11174,7 +12033,7 @@
         <v>312</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -11197,7 +12056,7 @@
         <v>313</v>
       </c>
       <c r="G67" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -11220,7 +12079,7 @@
         <v>314</v>
       </c>
       <c r="G68" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -11243,7 +12102,7 @@
         <v>315</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -11266,7 +12125,7 @@
         <v>316</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -11289,7 +12148,7 @@
         <v>317</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -11312,7 +12171,7 @@
         <v>318</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -11335,7 +12194,7 @@
         <v>319</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -13044,8 +13903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD4F24C-07B3-7045-8381-32044CAAAF87}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13786,7 +14645,7 @@
         <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -13809,7 +14668,7 @@
         <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -13832,7 +14691,7 @@
         <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -13855,7 +14714,7 @@
         <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -13878,7 +14737,7 @@
         <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -13901,7 +14760,7 @@
         <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -13924,7 +14783,7 @@
         <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -13947,7 +14806,7 @@
         <v>285</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -13970,7 +14829,7 @@
         <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -13993,7 +14852,7 @@
         <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -14016,7 +14875,7 @@
         <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -14039,7 +14898,7 @@
         <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -14062,7 +14921,7 @@
         <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -14085,7 +14944,7 @@
         <v>291</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -14108,7 +14967,7 @@
         <v>292</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -14131,7 +14990,7 @@
         <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -14154,7 +15013,7 @@
         <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -14177,7 +15036,7 @@
         <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -14194,7 +15053,7 @@
         <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="F50" t="s">
         <v>296</v>
@@ -14217,7 +15076,7 @@
         <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
         <v>297</v>
@@ -14240,7 +15099,7 @@
         <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
         <v>298</v>
@@ -14263,7 +15122,7 @@
         <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
         <v>299</v>
@@ -14286,7 +15145,7 @@
         <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
         <v>300</v>
@@ -14309,7 +15168,7 @@
         <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
         <v>301</v>
@@ -14332,13 +15191,13 @@
         <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
         <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -14355,13 +15214,13 @@
         <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="F57" t="s">
         <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -14378,13 +15237,13 @@
         <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
         <v>304</v>
       </c>
       <c r="G58" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -14401,13 +15260,13 @@
         <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
         <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -14424,13 +15283,13 @@
         <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="F60" t="s">
         <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -14447,13 +15306,13 @@
         <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
         <v>307</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -14470,13 +15329,13 @@
         <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="F62" t="s">
         <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -14493,13 +15352,13 @@
         <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
         <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -14516,13 +15375,13 @@
         <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
         <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -14539,13 +15398,13 @@
         <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
         <v>311</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -14562,13 +15421,13 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="F66" t="s">
         <v>312</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -14585,13 +15444,13 @@
         <v>196</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
       <c r="F67" t="s">
         <v>313</v>
       </c>
       <c r="G67" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -14608,13 +15467,13 @@
         <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
       <c r="F68" t="s">
         <v>314</v>
       </c>
       <c r="G68" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -14631,13 +15490,13 @@
         <v>196</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="F69" t="s">
         <v>315</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -14654,13 +15513,13 @@
         <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="F70" t="s">
         <v>316</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -14677,13 +15536,13 @@
         <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
         <v>317</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -14700,13 +15559,13 @@
         <v>196</v>
       </c>
       <c r="E72" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="F72" t="s">
         <v>318</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -14723,13 +15582,13 @@
         <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
       <c r="F73" t="s">
         <v>319</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -16435,11 +17294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD97239-9279-0E46-89FF-3614229366F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA59546-DED1-604B-AF3A-B6EBA43C5393}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16504,7 +17363,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>75</v>
@@ -16547,7 +17406,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>123</v>
+        <v>405</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>76</v>
@@ -16590,7 +17449,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>406</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>77</v>
@@ -16633,7 +17492,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>125</v>
+        <v>407</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>78</v>
@@ -16676,7 +17535,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>126</v>
+        <v>408</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>79</v>
@@ -16719,7 +17578,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>127</v>
+        <v>409</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>80</v>
@@ -16762,7 +17621,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>128</v>
+        <v>410</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>22</v>
@@ -16805,7 +17664,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>24</v>
@@ -16848,7 +17707,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>26</v>
@@ -16891,7 +17750,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>28</v>
@@ -16934,7 +17793,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>30</v>
@@ -16977,7 +17836,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>32</v>
@@ -17020,7 +17879,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>81</v>
@@ -17063,7 +17922,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>135</v>
+        <v>417</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>82</v>
@@ -17106,7 +17965,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>136</v>
+        <v>418</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>83</v>
@@ -17149,7 +18008,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>137</v>
+        <v>419</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>84</v>
@@ -17192,7 +18051,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>138</v>
+        <v>420</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>85</v>
@@ -17235,7 +18094,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>139</v>
+        <v>421</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>86</v>
@@ -17278,7 +18137,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>52</v>
@@ -17321,7 +18180,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>54</v>
@@ -17364,7 +18223,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>142</v>
+        <v>424</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>56</v>
@@ -17407,7 +18266,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>143</v>
+        <v>425</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>58</v>
@@ -17450,7 +18309,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>60</v>
@@ -17493,7 +18352,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>427</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>62</v>
@@ -17536,7 +18395,7 @@
         <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="F26" t="s">
         <v>272</v>
@@ -17559,7 +18418,7 @@
         <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="F27" t="s">
         <v>273</v>
@@ -17582,7 +18441,7 @@
         <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="F28" t="s">
         <v>274</v>
@@ -17605,7 +18464,7 @@
         <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>359</v>
       </c>
       <c r="F29" t="s">
         <v>275</v>
@@ -17628,7 +18487,7 @@
         <v>196</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="F30" t="s">
         <v>276</v>
@@ -17651,7 +18510,7 @@
         <v>196</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="F31" t="s">
         <v>277</v>
@@ -17674,13 +18533,13 @@
         <v>196</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
         <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -17697,13 +18556,13 @@
         <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="F33" t="s">
         <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -17720,13 +18579,13 @@
         <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="F34" t="s">
         <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -17743,13 +18602,13 @@
         <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="F35" t="s">
         <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -17766,13 +18625,13 @@
         <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="F36" t="s">
         <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -17789,13 +18648,13 @@
         <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
       <c r="F37" t="s">
         <v>283</v>
       </c>
       <c r="G37" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -17812,13 +18671,13 @@
         <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="F38" t="s">
         <v>284</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -17835,13 +18694,13 @@
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
       <c r="F39" t="s">
         <v>285</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -17858,13 +18717,13 @@
         <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
       <c r="F40" t="s">
         <v>286</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -17881,13 +18740,13 @@
         <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
       <c r="F41" t="s">
         <v>287</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -17904,13 +18763,13 @@
         <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>372</v>
       </c>
       <c r="F42" t="s">
         <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -17927,13 +18786,13 @@
         <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
       <c r="F43" t="s">
         <v>289</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -17950,13 +18809,13 @@
         <v>196</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
       <c r="F44" t="s">
         <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -17973,13 +18832,13 @@
         <v>196</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
         <v>291</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -17996,13 +18855,13 @@
         <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
       <c r="F46" t="s">
         <v>292</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -18019,13 +18878,13 @@
         <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="F47" t="s">
         <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -18042,13 +18901,13 @@
         <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
       <c r="F48" t="s">
         <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -18065,13 +18924,13 @@
         <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>379</v>
       </c>
       <c r="F49" t="s">
         <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -18088,7 +18947,7 @@
         <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="F50" t="s">
         <v>296</v>
@@ -18111,7 +18970,7 @@
         <v>196</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
         <v>297</v>
@@ -18134,7 +18993,7 @@
         <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
         <v>298</v>
@@ -18157,7 +19016,7 @@
         <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
         <v>299</v>
@@ -18180,7 +19039,7 @@
         <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
         <v>300</v>
@@ -18203,7 +19062,7 @@
         <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
         <v>301</v>
@@ -18226,13 +19085,13 @@
         <v>196</v>
       </c>
       <c r="E56" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
         <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -18249,13 +19108,13 @@
         <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="F57" t="s">
         <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -18272,13 +19131,13 @@
         <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
         <v>304</v>
       </c>
       <c r="G58" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -18295,13 +19154,13 @@
         <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
         <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -18318,13 +19177,13 @@
         <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="F60" t="s">
         <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -18341,13 +19200,13 @@
         <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
         <v>307</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -18364,13 +19223,13 @@
         <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="F62" t="s">
         <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -18387,13 +19246,13 @@
         <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
         <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -18410,13 +19269,13 @@
         <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
         <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -18433,13 +19292,13 @@
         <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
         <v>311</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -18456,13 +19315,13 @@
         <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="F66" t="s">
         <v>312</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -18479,13 +19338,13 @@
         <v>196</v>
       </c>
       <c r="E67" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
       <c r="F67" t="s">
         <v>313</v>
       </c>
       <c r="G67" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -18502,13 +19361,13 @@
         <v>196</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
       <c r="F68" t="s">
         <v>314</v>
       </c>
       <c r="G68" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -18525,13 +19384,13 @@
         <v>196</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="F69" t="s">
         <v>315</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -18548,13 +19407,13 @@
         <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>400</v>
       </c>
       <c r="F70" t="s">
         <v>316</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -18571,13 +19430,13 @@
         <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>270</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
         <v>317</v>
       </c>
       <c r="G71" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -18594,13 +19453,13 @@
         <v>196</v>
       </c>
       <c r="E72" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="F72" t="s">
         <v>318</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -18617,13 +19476,13 @@
         <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
       <c r="F73" t="s">
         <v>319</v>
       </c>
       <c r="G73" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -18632,855 +19491,2194 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0E07A8-53C8-894B-9787-B3B93F520B61}">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD97239-9279-0E46-89FF-3614229366F3}">
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G49" sqref="A2:G49"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F26" t="s">
         <v>272</v>
       </c>
-      <c r="G2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="G26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>147</v>
       </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F27" t="s">
         <v>273</v>
       </c>
-      <c r="G3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
         <v>226</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F28" t="s">
         <v>274</v>
       </c>
-      <c r="G4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>149</v>
       </c>
-      <c r="D5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
         <v>227</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F29" t="s">
         <v>275</v>
       </c>
-      <c r="G5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+      <c r="G29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>150</v>
       </c>
-      <c r="D6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
         <v>228</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F30" t="s">
         <v>276</v>
       </c>
-      <c r="G6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+      <c r="G30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="D7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
         <v>229</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F31" t="s">
         <v>277</v>
       </c>
-      <c r="G7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+      <c r="G31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>152</v>
       </c>
-      <c r="D8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" t="s">
         <v>231</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F32" t="s">
         <v>278</v>
-      </c>
-      <c r="G8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F13" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" t="s">
-        <v>297</v>
-      </c>
-      <c r="G27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F28" t="s">
-        <v>298</v>
-      </c>
-      <c r="G28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" t="s">
-        <v>299</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" t="s">
-        <v>302</v>
       </c>
       <c r="G32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
         <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
         <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
         <v>196</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
         <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
         <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
         <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="G39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
         <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G40" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="G41" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
         <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
         <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="G43" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
         <v>196</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="G44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
         <v>196</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="G45" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
         <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="G46" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
         <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
         <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="G48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" t="s">
+        <v>255</v>
+      </c>
+      <c r="F56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" t="s">
+        <v>256</v>
+      </c>
+      <c r="F57" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="9">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" t="s">
+        <v>257</v>
+      </c>
+      <c r="F58" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="9">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="9">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="9">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" t="s">
+        <v>308</v>
+      </c>
+      <c r="G62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="9">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" t="s">
+        <v>309</v>
+      </c>
+      <c r="G63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="9">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" t="s">
+        <v>311</v>
+      </c>
+      <c r="G65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="9">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
+        <v>196</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" t="s">
+        <v>312</v>
+      </c>
+      <c r="G66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="9">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" t="s">
+        <v>313</v>
+      </c>
+      <c r="G67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="9">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" t="s">
+        <v>314</v>
+      </c>
+      <c r="G68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="9">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" t="s">
+        <v>315</v>
+      </c>
+      <c r="G69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="9">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>196</v>
+      </c>
+      <c r="E70" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" t="s">
+        <v>316</v>
+      </c>
+      <c r="G70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="9">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" t="s">
+        <v>317</v>
+      </c>
+      <c r="G71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="9">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="9">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
         <v>191</v>
       </c>
-      <c r="D49" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" t="s">
         <v>254</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F73" t="s">
         <v>319</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G73" t="s">
         <v>222</v>
       </c>
     </row>

--- a/Counterbalancing planning.xlsx
+++ b/Counterbalancing planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/jsong_bowdoin_edu/Documents/Documents/Bowdoin/Github/Jacey_Nancy_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3971236A-93AB-624E-B516-0F50142A25D9}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50855331-78C3-E142-AEE6-A76AF09628CE}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="26740" windowHeight="15800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="26740" windowHeight="15800" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="practice-stimuli" sheetId="16" r:id="rId1"/>
@@ -22,11 +22,13 @@
     <sheet name="list-3" sheetId="13" r:id="rId7"/>
     <sheet name="list-4 (2)" sheetId="20" r:id="rId8"/>
     <sheet name="list-4" sheetId="11" r:id="rId9"/>
-    <sheet name="fillers final" sheetId="15" r:id="rId10"/>
-    <sheet name="fillers-matched images" sheetId="10" r:id="rId11"/>
-    <sheet name="Conditions list" sheetId="5" r:id="rId12"/>
-    <sheet name="Objects list" sheetId="6" r:id="rId13"/>
-    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId10"/>
+    <sheet name="images" sheetId="21" r:id="rId11"/>
+    <sheet name="fillers final" sheetId="15" r:id="rId12"/>
+    <sheet name="fillers-matched images" sheetId="10" r:id="rId13"/>
+    <sheet name="Conditions list" sheetId="5" r:id="rId14"/>
+    <sheet name="Objects list" sheetId="6" r:id="rId15"/>
+    <sheet name="Counterbalancing chart" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="500">
   <si>
     <t>object_number</t>
   </si>
@@ -1330,6 +1332,222 @@
   </si>
   <si>
     <t>grapefruit_whole.jpeg</t>
+  </si>
+  <si>
+    <t>'watermelon_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'apple_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'cake_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'pie _slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'bread_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'pineapple_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'peach_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'steak_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'cheesecake_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'lemon_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'tomato_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'orange_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pizza_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'melon_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'cucumber_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'carrot_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'onion_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'mushrooms_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'radish_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pear_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pepper_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'mango_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'strawberry_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'grapefruit_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'sandwich.jpeg'</t>
+  </si>
+  <si>
+    <t>'taco.jpeg'</t>
+  </si>
+  <si>
+    <t>'potato.jpeg'</t>
+  </si>
+  <si>
+    <t>'cookie.jpeg'</t>
+  </si>
+  <si>
+    <t>'chips.jpeg'</t>
+  </si>
+  <si>
+    <t>'ketchup.jpeg'</t>
+  </si>
+  <si>
+    <t>'waffle.jpeg'</t>
+  </si>
+  <si>
+    <t>'rice.jpeg'</t>
+  </si>
+  <si>
+    <t>'cracker.jpeg'</t>
+  </si>
+  <si>
+    <t>'pasta.jpeg'</t>
+  </si>
+  <si>
+    <t>'granolabar.jpeg'</t>
+  </si>
+  <si>
+    <t>'dumpling.jpeg'</t>
+  </si>
+  <si>
+    <t>'lettuce.jpeg'</t>
+  </si>
+  <si>
+    <t>'fries.jpeg'</t>
+  </si>
+  <si>
+    <t>'croissant.jpeg'</t>
+  </si>
+  <si>
+    <t>'burger.jpeg'</t>
+  </si>
+  <si>
+    <t>'peanut.jpeg'</t>
+  </si>
+  <si>
+    <t>'pretzel.jpeg'</t>
+  </si>
+  <si>
+    <t>'applesauce.jpeg'</t>
+  </si>
+  <si>
+    <t>'sushi.jpeg'</t>
+  </si>
+  <si>
+    <t>'pancake.jpeg'</t>
+  </si>
+  <si>
+    <t>'donut.jpeg'</t>
+  </si>
+  <si>
+    <t>'banana.jpeg'</t>
+  </si>
+  <si>
+    <t>'corn.jpeg'</t>
+  </si>
+  <si>
+    <t>'pillow.jpeg'</t>
+  </si>
+  <si>
+    <t>'lamp.jpeg'</t>
+  </si>
+  <si>
+    <t>'soap.jpeg'</t>
+  </si>
+  <si>
+    <t>'tablet.jpeg'</t>
+  </si>
+  <si>
+    <t>'mug.jpeg'</t>
+  </si>
+  <si>
+    <t>'couch.jpeg'</t>
+  </si>
+  <si>
+    <t>'phone.jpeg'</t>
+  </si>
+  <si>
+    <t>'plate.jpeg'</t>
+  </si>
+  <si>
+    <t>'chair.jpeg'</t>
+  </si>
+  <si>
+    <t>'TV.jpeg'</t>
+  </si>
+  <si>
+    <t>'backpack.jpeg'</t>
+  </si>
+  <si>
+    <t>'shoe.jpeg'</t>
+  </si>
+  <si>
+    <t>'book.jpeg'</t>
+  </si>
+  <si>
+    <t>'ring.jpeg'</t>
+  </si>
+  <si>
+    <t>'computer.jpeg'</t>
+  </si>
+  <si>
+    <t>'pencil.jpeg'</t>
+  </si>
+  <si>
+    <t>'spoon.jpeg'</t>
+  </si>
+  <si>
+    <t>'sponge.jpeg'</t>
+  </si>
+  <si>
+    <t>'coat.jpeg'</t>
+  </si>
+  <si>
+    <t>'bottle.jpeg'</t>
+  </si>
+  <si>
+    <t>'camera.jpeg'</t>
+  </si>
+  <si>
+    <t>'tennisball.jpeg'</t>
+  </si>
+  <si>
+    <t>'pants.jpeg'</t>
+  </si>
+  <si>
+    <t>'beanbag.jpeg'</t>
   </si>
 </sst>
 </file>
@@ -1806,11 +2024,1047 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BBED15-0BB9-8B4E-BE50-F24E1C42D288}">
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83896436-3D6E-C94B-BBCE-E547C80AFD77}">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("'",A1,"'")</f>
+        <v>'watermelon_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"'")</f>
+        <v>'apple_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" t="str">
+        <f>_xlfn.CONCAT("'",A3,"'")</f>
+        <v>'cake_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT("'",A4,"'")</f>
+        <v>'pie _slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT("'",A5,"'")</f>
+        <v>'bread_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT("'",A6,"'")</f>
+        <v>'pineapple_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT("'",A7,"'")</f>
+        <v>'peach_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("'",A8,"'")</f>
+        <v>'steak_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("'",A9,"'")</f>
+        <v>'cheesecake_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("'",A10,"'")</f>
+        <v>'lemon_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("'",A11,"'")</f>
+        <v>'tomato_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("'",A12,"'")</f>
+        <v>'orange_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT("'",A13,"'")</f>
+        <v>'pizza_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT("'",A14,"'")</f>
+        <v>'melon_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT("'",A15,"'")</f>
+        <v>'cucumber_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT("'",A16,"'")</f>
+        <v>'carrot_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT("'",A17,"'")</f>
+        <v>'onion_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" t="str">
+        <f>_xlfn.CONCAT("'",A18,"'")</f>
+        <v>'mushrooms_slice.jpeg'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT("'",A19,"'")</f>
+        <v>'radish_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT("'",A20,"'")</f>
+        <v>'pear_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.CONCAT("'",A21,"'")</f>
+        <v>'pepper_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT("'",A22,"'")</f>
+        <v>'mango_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.CONCAT("'",A23,"'")</f>
+        <v>'strawberry_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT("'",A24,"'")</f>
+        <v>'grapefruit_whole.jpeg'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT("'",A25,"'")</f>
+        <v>'sandwich.jpeg'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.CONCAT("'",A26,"'")</f>
+        <v>'taco.jpeg'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="str">
+        <f>_xlfn.CONCAT("'",A27,"'")</f>
+        <v>'potato.jpeg'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.CONCAT("'",A28,"'")</f>
+        <v>'cookie.jpeg'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT("'",A29,"'")</f>
+        <v>'chips.jpeg'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT("'",A30,"'")</f>
+        <v>'ketchup.jpeg'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT("'",A31,"'")</f>
+        <v>'waffle.jpeg'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("'",A32,"'")</f>
+        <v>'rice.jpeg'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT("'",A33,"'")</f>
+        <v>'cracker.jpeg'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B34" t="str">
+        <f>_xlfn.CONCAT("'",A34,"'")</f>
+        <v>'pasta.jpeg'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" t="str">
+        <f>_xlfn.CONCAT("'",A35,"'")</f>
+        <v>'granolabar.jpeg'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" t="str">
+        <f>_xlfn.CONCAT("'",A36,"'")</f>
+        <v>'dumpling.jpeg'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" t="str">
+        <f>_xlfn.CONCAT("'",A37,"'")</f>
+        <v>'lettuce.jpeg'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" t="str">
+        <f>_xlfn.CONCAT("'",A38,"'")</f>
+        <v>'fries.jpeg'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B39" t="str">
+        <f>_xlfn.CONCAT("'",A39,"'")</f>
+        <v>'croissant.jpeg'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" t="str">
+        <f>_xlfn.CONCAT("'",A40,"'")</f>
+        <v>'burger.jpeg'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B41" t="str">
+        <f>_xlfn.CONCAT("'",A41,"'")</f>
+        <v>'peanut.jpeg'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" t="str">
+        <f>_xlfn.CONCAT("'",A42,"'")</f>
+        <v>'pretzel.jpeg'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" t="str">
+        <f>_xlfn.CONCAT("'",A43,"'")</f>
+        <v>'applesauce.jpeg'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="str">
+        <f>_xlfn.CONCAT("'",A44,"'")</f>
+        <v>'sushi.jpeg'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" t="str">
+        <f>_xlfn.CONCAT("'",A45,"'")</f>
+        <v>'pancake.jpeg'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" t="str">
+        <f>_xlfn.CONCAT("'",A46,"'")</f>
+        <v>'donut.jpeg'</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" t="str">
+        <f>_xlfn.CONCAT("'",A47,"'")</f>
+        <v>'banana.jpeg'</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" t="str">
+        <f>_xlfn.CONCAT("'",A48,"'")</f>
+        <v>'corn.jpeg'</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" t="str">
+        <f>_xlfn.CONCAT("'",A49,"'")</f>
+        <v>'pillow.jpeg'</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" t="str">
+        <f>_xlfn.CONCAT("'",A50,"'")</f>
+        <v>'lamp.jpeg'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>382</v>
+      </c>
+      <c r="B51" t="str">
+        <f>_xlfn.CONCAT("'",A51,"'")</f>
+        <v>'soap.jpeg'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" t="str">
+        <f>_xlfn.CONCAT("'",A52,"'")</f>
+        <v>'tablet.jpeg'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" t="str">
+        <f>_xlfn.CONCAT("'",A53,"'")</f>
+        <v>'mug.jpeg'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" t="str">
+        <f>_xlfn.CONCAT("'",A54,"'")</f>
+        <v>'couch.jpeg'</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" t="str">
+        <f>_xlfn.CONCAT("'",A55,"'")</f>
+        <v>'phone.jpeg'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" t="str">
+        <f>_xlfn.CONCAT("'",A56,"'")</f>
+        <v>'plate.jpeg'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B57" t="str">
+        <f>_xlfn.CONCAT("'",A57,"'")</f>
+        <v>'chair.jpeg'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" t="str">
+        <f>_xlfn.CONCAT("'",A58,"'")</f>
+        <v>'TV.jpeg'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59" t="str">
+        <f>_xlfn.CONCAT("'",A59,"'")</f>
+        <v>'backpack.jpeg'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" t="str">
+        <f>_xlfn.CONCAT("'",A60,"'")</f>
+        <v>'shoe.jpeg'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" t="str">
+        <f>_xlfn.CONCAT("'",A61,"'")</f>
+        <v>'book.jpeg'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" t="str">
+        <f>_xlfn.CONCAT("'",A62,"'")</f>
+        <v>'ring.jpeg'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" t="str">
+        <f>_xlfn.CONCAT("'",A63,"'")</f>
+        <v>'computer.jpeg'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" t="str">
+        <f>_xlfn.CONCAT("'",A64,"'")</f>
+        <v>'pencil.jpeg'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" t="str">
+        <f>_xlfn.CONCAT("'",A65,"'")</f>
+        <v>'spoon.jpeg'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" t="str">
+        <f>_xlfn.CONCAT("'",A66,"'")</f>
+        <v>'sponge.jpeg'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" t="str">
+        <f>_xlfn.CONCAT("'",A67,"'")</f>
+        <v>'coat.jpeg'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" t="str">
+        <f>_xlfn.CONCAT("'",A68,"'")</f>
+        <v>'bottle.jpeg'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>400</v>
+      </c>
+      <c r="B69" t="str">
+        <f>_xlfn.CONCAT("'",A69,"'")</f>
+        <v>'camera.jpeg'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" t="str">
+        <f>_xlfn.CONCAT("'",A70,"'")</f>
+        <v>'tennisball.jpeg'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>402</v>
+      </c>
+      <c r="B71" t="str">
+        <f>_xlfn.CONCAT("'",A71,"'")</f>
+        <v>'pants.jpeg'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>403</v>
+      </c>
+      <c r="B72" t="str">
+        <f>_xlfn.CONCAT("'",A72,"'")</f>
+        <v>'beanbag.jpeg'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0E07A8-53C8-894B-9787-B3B93F520B61}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G49" sqref="A2:G49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2663,7 +3917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627B4A16-75F3-D342-9172-E949E2E3B325}">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -3951,7 +5205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6417,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6426,7 +7680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7008,7 +8262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13903,8 +15157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD4F24C-07B3-7045-8381-32044CAAAF87}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56:G73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15601,7 +16855,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C38:C39"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17297,8 +18551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA59546-DED1-604B-AF3A-B6EBA43C5393}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Counterbalancing planning.xlsx
+++ b/Counterbalancing planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/jsong_bowdoin_edu/Documents/Documents/Bowdoin/Github/Jacey_Nancy_Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a0dba9691d9591/Cog Sci 2740/Experiment/Jacey_Nancy_Experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50855331-78C3-E142-AEE6-A76AF09628CE}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="11_E0FAFABED134F7B8C3588F65DF956C873660DED6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5EDCD1-CA5E-B443-BF23-1AB7C7F5943B}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="26740" windowHeight="15800" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="15800" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="practice-stimuli" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="list-3" sheetId="13" r:id="rId7"/>
     <sheet name="list-4 (2)" sheetId="20" r:id="rId8"/>
     <sheet name="list-4" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="22" r:id="rId10"/>
+    <sheet name="image csv" sheetId="23" r:id="rId10"/>
     <sheet name="images" sheetId="21" r:id="rId11"/>
     <sheet name="fillers final" sheetId="15" r:id="rId12"/>
     <sheet name="fillers-matched images" sheetId="10" r:id="rId13"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4056" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="529">
   <si>
     <t>object_number</t>
   </si>
@@ -1548,6 +1548,93 @@
   </si>
   <si>
     <t>'beanbag.jpeg'</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>'apple_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'bread_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'cake_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'carrot_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'cucumber_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'melon_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'mushrooms_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'onion_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pie _whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pineapple_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'pizza_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'watermelon_whole.jpeg'</t>
+  </si>
+  <si>
+    <t>'cheesecake_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'grapefruit_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'lemon_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'mango_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'orange_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'peach_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'pear_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'pepper_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'radish_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'steak_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'strawberry_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'tomato_slice.jpeg'</t>
+  </si>
+  <si>
+    <t>'chocolate.jpeg'</t>
+  </si>
+  <si>
+    <t>'icecream.jpeg'</t>
+  </si>
+  <si>
+    <t>'key.jpeg'</t>
+  </si>
+  <si>
+    <t>'leaf.jpeg'</t>
   </si>
 </sst>
 </file>
@@ -2024,371 +2111,313 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BBED15-0BB9-8B4E-BE50-F24E1C42D288}">
-  <dimension ref="A1:A72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C4FCFA-15AD-9045-9D5C-2BA51C0003C6}">
+  <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O1" t="s">
+        <v>465</v>
+      </c>
+      <c r="P1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S1" t="s">
+        <v>469</v>
+      </c>
+      <c r="T1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U1" t="s">
+        <v>471</v>
+      </c>
+      <c r="V1" t="s">
+        <v>472</v>
+      </c>
+      <c r="W1" t="s">
+        <v>473</v>
+      </c>
+      <c r="X1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>449</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>507</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>508</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>509</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>510</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>511</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>429</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>513</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>442</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>514</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>515</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>516</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>441</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>517</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>518</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>519</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>520</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>433</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>440</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>521</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>522</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>523</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>499</v>
+      <c r="CS1" t="s">
+        <v>525</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>527</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -2398,660 +2427,1212 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83896436-3D6E-C94B-BBCE-E547C80AFD77}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B72"/>
+      <selection activeCell="D1" sqref="D1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>404</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>146</v>
       </c>
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT("'",A1,"'")</f>
+        <f>_xlfn.CONCAT("'",A1,".jpeg'")</f>
+        <v>'sandwich.jpeg'</v>
+      </c>
+      <c r="D1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B48" si="0">_xlfn.CONCAT("'",A2,".jpeg'")</f>
+        <v>'taco.jpeg'</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'potato.jpeg'</v>
+      </c>
+      <c r="D3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'cookie.jpeg'</v>
+      </c>
+      <c r="D4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'chips.jpeg'</v>
+      </c>
+      <c r="D5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'ketchup.jpeg'</v>
+      </c>
+      <c r="D6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'corn.jpeg'</v>
+      </c>
+      <c r="D7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'waffle.jpeg'</v>
+      </c>
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'rice.jpeg'</v>
+      </c>
+      <c r="D9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'cracker.jpeg'</v>
+      </c>
+      <c r="D10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'pasta.jpeg'</v>
+      </c>
+      <c r="D11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'granolabar.jpeg'</v>
+      </c>
+      <c r="D12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'dumpling.jpeg'</v>
+      </c>
+      <c r="D13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'lettuce.jpeg'</v>
+      </c>
+      <c r="D14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'fries.jpeg'</v>
+      </c>
+      <c r="D15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'croissant.jpeg'</v>
+      </c>
+      <c r="D16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'burger.jpeg'</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'peanut.jpeg'</v>
+      </c>
+      <c r="D18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'pretzel.jpeg'</v>
+      </c>
+      <c r="D19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'applesauce.jpeg'</v>
+      </c>
+      <c r="D20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'sushi.jpeg'</v>
+      </c>
+      <c r="D21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'pancake.jpeg'</v>
+      </c>
+      <c r="D22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'donut.jpeg'</v>
+      </c>
+      <c r="D23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'banana.jpeg'</v>
+      </c>
+      <c r="D24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'pillow.jpeg'</v>
+      </c>
+      <c r="D25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'lamp.jpeg'</v>
+      </c>
+      <c r="D26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'soap.jpeg'</v>
+      </c>
+      <c r="D27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'tablet.jpeg'</v>
+      </c>
+      <c r="D28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'mug.jpeg'</v>
+      </c>
+      <c r="D29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'couch.jpeg'</v>
+      </c>
+      <c r="D30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'beanbag.jpeg'</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'phone.jpeg'</v>
+      </c>
+      <c r="D32" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'plate.jpeg'</v>
+      </c>
+      <c r="D33" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'chair.jpeg'</v>
+      </c>
+      <c r="D34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'TV.jpeg'</v>
+      </c>
+      <c r="D35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'backpack.jpeg'</v>
+      </c>
+      <c r="D36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>'shoe.jpeg'</v>
+      </c>
+      <c r="D37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>'book.jpeg'</v>
+      </c>
+      <c r="D38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>'ring.jpeg'</v>
+      </c>
+      <c r="D39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>'computer.jpeg'</v>
+      </c>
+      <c r="D40" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>'pencil.jpeg'</v>
+      </c>
+      <c r="D41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>'spoon.jpeg'</v>
+      </c>
+      <c r="D42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>'sponge.jpeg'</v>
+      </c>
+      <c r="D43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>'coat.jpeg'</v>
+      </c>
+      <c r="D44" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>'bottle.jpeg'</v>
+      </c>
+      <c r="D45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>'camera.jpeg'</v>
+      </c>
+      <c r="D46" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>'tennisball.jpeg'</v>
+      </c>
+      <c r="D47" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>'pants.jpeg'</v>
+      </c>
+      <c r="D48" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="str">
+        <f>_xlfn.CONCAT("'",A49,"_whole.jpeg'")</f>
+        <v>'apple_whole.jpeg'</v>
+      </c>
+      <c r="D49" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:B72" si="1">_xlfn.CONCAT("'",A50,"_whole.jpeg'")</f>
+        <v>'bread_whole.jpeg'</v>
+      </c>
+      <c r="D50" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>'cake_whole.jpeg'</v>
+      </c>
+      <c r="D51" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>'carrot_whole.jpeg'</v>
+      </c>
+      <c r="D52" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>'cheesecake_whole.jpeg'</v>
+      </c>
+      <c r="D53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>'cucumber_whole.jpeg'</v>
+      </c>
+      <c r="D54" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>'grapefruit_whole.jpeg'</v>
+      </c>
+      <c r="D55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>'lemon_whole.jpeg'</v>
+      </c>
+      <c r="D56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>'mango_whole.jpeg'</v>
+      </c>
+      <c r="D57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>'melon_whole.jpeg'</v>
+      </c>
+      <c r="D58" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="1"/>
+        <v>'mushrooms_whole.jpeg'</v>
+      </c>
+      <c r="D59" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>'onion_whole.jpeg'</v>
+      </c>
+      <c r="D60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>'orange_whole.jpeg'</v>
+      </c>
+      <c r="D61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="1"/>
+        <v>'peach_whole.jpeg'</v>
+      </c>
+      <c r="D62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>'pear_whole.jpeg'</v>
+      </c>
+      <c r="D63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="1"/>
+        <v>'pepper_whole.jpeg'</v>
+      </c>
+      <c r="D64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>'pie _whole.jpeg'</v>
+      </c>
+      <c r="D65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>'pineapple_whole.jpeg'</v>
+      </c>
+      <c r="D66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>'pizza_whole.jpeg'</v>
+      </c>
+      <c r="D67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>'radish_whole.jpeg'</v>
+      </c>
+      <c r="D68" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>'steak_whole.jpeg'</v>
+      </c>
+      <c r="D69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>'strawberry_whole.jpeg'</v>
+      </c>
+      <c r="D70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>'tomato_whole.jpeg'</v>
+      </c>
+      <c r="D71" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>'watermelon_whole.jpeg'</v>
+      </c>
+      <c r="D72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="str">
+        <f>_xlfn.CONCAT("'",A73,"_slice.jpeg'")</f>
+        <v>'apple_slice.jpeg'</v>
+      </c>
+      <c r="D73" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" ref="B74:B100" si="2">_xlfn.CONCAT("'",A74,"_slice.jpeg'")</f>
+        <v>'bread_slice.jpeg'</v>
+      </c>
+      <c r="D74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>'cake_slice.jpeg'</v>
+      </c>
+      <c r="D75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>'carrot_slice.jpeg'</v>
+      </c>
+      <c r="D76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>'cheesecake_slice.jpeg'</v>
+      </c>
+      <c r="D77" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>'cucumber_slice.jpeg'</v>
+      </c>
+      <c r="D78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>'grapefruit_slice.jpeg'</v>
+      </c>
+      <c r="D79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>'lemon_slice.jpeg'</v>
+      </c>
+      <c r="D80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>'mango_slice.jpeg'</v>
+      </c>
+      <c r="D81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>'melon_slice.jpeg'</v>
+      </c>
+      <c r="D82" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>'mushrooms_slice.jpeg'</v>
+      </c>
+      <c r="D83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>'onion_slice.jpeg'</v>
+      </c>
+      <c r="D84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>'orange_slice.jpeg'</v>
+      </c>
+      <c r="D85" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>'peach_slice.jpeg'</v>
+      </c>
+      <c r="D86" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>'pear_slice.jpeg'</v>
+      </c>
+      <c r="D87" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>'pepper_slice.jpeg'</v>
+      </c>
+      <c r="D88" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>'pie _slice.jpeg'</v>
+      </c>
+      <c r="D89" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>'pineapple_slice.jpeg'</v>
+      </c>
+      <c r="D90" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>'pizza_slice.jpeg'</v>
+      </c>
+      <c r="D91" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>'radish_slice.jpeg'</v>
+      </c>
+      <c r="D92" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>'steak_slice.jpeg'</v>
+      </c>
+      <c r="D93" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>'strawberry_slice.jpeg'</v>
+      </c>
+      <c r="D94" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>'tomato_slice.jpeg'</v>
+      </c>
+      <c r="D95" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
         <v>'watermelon_slice.jpeg'</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("'",A2,"'")</f>
-        <v>'apple_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" t="str">
-        <f>_xlfn.CONCAT("'",A3,"'")</f>
-        <v>'cake_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT("'",A4,"'")</f>
-        <v>'pie _slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B5" t="str">
-        <f>_xlfn.CONCAT("'",A5,"'")</f>
-        <v>'bread_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" t="str">
-        <f>_xlfn.CONCAT("'",A6,"'")</f>
-        <v>'pineapple_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" t="str">
-        <f>_xlfn.CONCAT("'",A7,"'")</f>
-        <v>'peach_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("'",A8,"'")</f>
-        <v>'steak_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("'",A9,"'")</f>
-        <v>'cheesecake_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("'",A10,"'")</f>
-        <v>'lemon_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("'",A11,"'")</f>
-        <v>'tomato_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("'",A12,"'")</f>
-        <v>'orange_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" t="str">
-        <f>_xlfn.CONCAT("'",A13,"'")</f>
-        <v>'pizza_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B14" t="str">
-        <f>_xlfn.CONCAT("'",A14,"'")</f>
-        <v>'melon_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" t="str">
-        <f>_xlfn.CONCAT("'",A15,"'")</f>
-        <v>'cucumber_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B16" t="str">
-        <f>_xlfn.CONCAT("'",A16,"'")</f>
-        <v>'carrot_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" t="str">
-        <f>_xlfn.CONCAT("'",A17,"'")</f>
-        <v>'onion_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B18" t="str">
-        <f>_xlfn.CONCAT("'",A18,"'")</f>
-        <v>'mushrooms_slice.jpeg'</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B19" t="str">
-        <f>_xlfn.CONCAT("'",A19,"'")</f>
-        <v>'radish_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B20" t="str">
-        <f>_xlfn.CONCAT("'",A20,"'")</f>
-        <v>'pear_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B21" t="str">
-        <f>_xlfn.CONCAT("'",A21,"'")</f>
-        <v>'pepper_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B22" t="str">
-        <f>_xlfn.CONCAT("'",A22,"'")</f>
-        <v>'mango_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="B23" t="str">
-        <f>_xlfn.CONCAT("'",A23,"'")</f>
-        <v>'strawberry_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" t="str">
-        <f>_xlfn.CONCAT("'",A24,"'")</f>
-        <v>'grapefruit_whole.jpeg'</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>356</v>
-      </c>
-      <c r="B25" t="str">
-        <f>_xlfn.CONCAT("'",A25,"'")</f>
-        <v>'sandwich.jpeg'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>357</v>
-      </c>
-      <c r="B26" t="str">
-        <f>_xlfn.CONCAT("'",A26,"'")</f>
-        <v>'taco.jpeg'</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" t="str">
-        <f>_xlfn.CONCAT("'",A27,"'")</f>
-        <v>'potato.jpeg'</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" t="str">
-        <f>_xlfn.CONCAT("'",A28,"'")</f>
-        <v>'cookie.jpeg'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>360</v>
-      </c>
-      <c r="B29" t="str">
-        <f>_xlfn.CONCAT("'",A29,"'")</f>
-        <v>'chips.jpeg'</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" t="str">
-        <f>_xlfn.CONCAT("'",A30,"'")</f>
-        <v>'ketchup.jpeg'</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" t="str">
-        <f>_xlfn.CONCAT("'",A31,"'")</f>
-        <v>'waffle.jpeg'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>363</v>
-      </c>
-      <c r="B32" t="str">
-        <f>_xlfn.CONCAT("'",A32,"'")</f>
-        <v>'rice.jpeg'</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" t="str">
-        <f>_xlfn.CONCAT("'",A33,"'")</f>
-        <v>'cracker.jpeg'</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B34" t="str">
-        <f>_xlfn.CONCAT("'",A34,"'")</f>
-        <v>'pasta.jpeg'</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>366</v>
-      </c>
-      <c r="B35" t="str">
-        <f>_xlfn.CONCAT("'",A35,"'")</f>
-        <v>'granolabar.jpeg'</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B36" t="str">
-        <f>_xlfn.CONCAT("'",A36,"'")</f>
-        <v>'dumpling.jpeg'</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>368</v>
-      </c>
-      <c r="B37" t="str">
-        <f>_xlfn.CONCAT("'",A37,"'")</f>
-        <v>'lettuce.jpeg'</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>369</v>
-      </c>
-      <c r="B38" t="str">
-        <f>_xlfn.CONCAT("'",A38,"'")</f>
-        <v>'fries.jpeg'</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>370</v>
-      </c>
-      <c r="B39" t="str">
-        <f>_xlfn.CONCAT("'",A39,"'")</f>
-        <v>'croissant.jpeg'</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" t="str">
-        <f>_xlfn.CONCAT("'",A40,"'")</f>
-        <v>'burger.jpeg'</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>372</v>
-      </c>
-      <c r="B41" t="str">
-        <f>_xlfn.CONCAT("'",A41,"'")</f>
-        <v>'peanut.jpeg'</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>373</v>
-      </c>
-      <c r="B42" t="str">
-        <f>_xlfn.CONCAT("'",A42,"'")</f>
-        <v>'pretzel.jpeg'</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>374</v>
-      </c>
-      <c r="B43" t="str">
-        <f>_xlfn.CONCAT("'",A43,"'")</f>
-        <v>'applesauce.jpeg'</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" t="str">
-        <f>_xlfn.CONCAT("'",A44,"'")</f>
-        <v>'sushi.jpeg'</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>376</v>
-      </c>
-      <c r="B45" t="str">
-        <f>_xlfn.CONCAT("'",A45,"'")</f>
-        <v>'pancake.jpeg'</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>377</v>
-      </c>
-      <c r="B46" t="str">
-        <f>_xlfn.CONCAT("'",A46,"'")</f>
-        <v>'donut.jpeg'</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>378</v>
-      </c>
-      <c r="B47" t="str">
-        <f>_xlfn.CONCAT("'",A47,"'")</f>
-        <v>'banana.jpeg'</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B48" t="str">
-        <f>_xlfn.CONCAT("'",A48,"'")</f>
-        <v>'corn.jpeg'</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>380</v>
-      </c>
-      <c r="B49" t="str">
-        <f>_xlfn.CONCAT("'",A49,"'")</f>
-        <v>'pillow.jpeg'</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>381</v>
-      </c>
-      <c r="B50" t="str">
-        <f>_xlfn.CONCAT("'",A50,"'")</f>
-        <v>'lamp.jpeg'</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>382</v>
-      </c>
-      <c r="B51" t="str">
-        <f>_xlfn.CONCAT("'",A51,"'")</f>
-        <v>'soap.jpeg'</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" t="str">
-        <f>_xlfn.CONCAT("'",A52,"'")</f>
-        <v>'tablet.jpeg'</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>384</v>
-      </c>
-      <c r="B53" t="str">
-        <f>_xlfn.CONCAT("'",A53,"'")</f>
-        <v>'mug.jpeg'</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>385</v>
-      </c>
-      <c r="B54" t="str">
-        <f>_xlfn.CONCAT("'",A54,"'")</f>
-        <v>'couch.jpeg'</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>386</v>
-      </c>
-      <c r="B55" t="str">
-        <f>_xlfn.CONCAT("'",A55,"'")</f>
-        <v>'phone.jpeg'</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>387</v>
-      </c>
-      <c r="B56" t="str">
-        <f>_xlfn.CONCAT("'",A56,"'")</f>
-        <v>'plate.jpeg'</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>388</v>
-      </c>
-      <c r="B57" t="str">
-        <f>_xlfn.CONCAT("'",A57,"'")</f>
-        <v>'chair.jpeg'</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>389</v>
-      </c>
-      <c r="B58" t="str">
-        <f>_xlfn.CONCAT("'",A58,"'")</f>
-        <v>'TV.jpeg'</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>390</v>
-      </c>
-      <c r="B59" t="str">
-        <f>_xlfn.CONCAT("'",A59,"'")</f>
-        <v>'backpack.jpeg'</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>391</v>
-      </c>
-      <c r="B60" t="str">
-        <f>_xlfn.CONCAT("'",A60,"'")</f>
-        <v>'shoe.jpeg'</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>392</v>
-      </c>
-      <c r="B61" t="str">
-        <f>_xlfn.CONCAT("'",A61,"'")</f>
-        <v>'book.jpeg'</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>393</v>
-      </c>
-      <c r="B62" t="str">
-        <f>_xlfn.CONCAT("'",A62,"'")</f>
-        <v>'ring.jpeg'</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B63" t="str">
-        <f>_xlfn.CONCAT("'",A63,"'")</f>
-        <v>'computer.jpeg'</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>395</v>
-      </c>
-      <c r="B64" t="str">
-        <f>_xlfn.CONCAT("'",A64,"'")</f>
-        <v>'pencil.jpeg'</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B65" t="str">
-        <f>_xlfn.CONCAT("'",A65,"'")</f>
-        <v>'spoon.jpeg'</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>397</v>
-      </c>
-      <c r="B66" t="str">
-        <f>_xlfn.CONCAT("'",A66,"'")</f>
-        <v>'sponge.jpeg'</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>398</v>
-      </c>
-      <c r="B67" t="str">
-        <f>_xlfn.CONCAT("'",A67,"'")</f>
-        <v>'coat.jpeg'</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>399</v>
-      </c>
-      <c r="B68" t="str">
-        <f>_xlfn.CONCAT("'",A68,"'")</f>
-        <v>'bottle.jpeg'</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>400</v>
-      </c>
-      <c r="B69" t="str">
-        <f>_xlfn.CONCAT("'",A69,"'")</f>
-        <v>'camera.jpeg'</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>401</v>
-      </c>
-      <c r="B70" t="str">
-        <f>_xlfn.CONCAT("'",A70,"'")</f>
-        <v>'tennisball.jpeg'</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>402</v>
-      </c>
-      <c r="B71" t="str">
-        <f>_xlfn.CONCAT("'",A71,"'")</f>
-        <v>'pants.jpeg'</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>403</v>
-      </c>
-      <c r="B72" t="str">
-        <f>_xlfn.CONCAT("'",A72,"'")</f>
-        <v>'beanbag.jpeg'</v>
+      <c r="D96" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" t="str">
+        <f>_xlfn.CONCAT("'",A97,".jpeg'")</f>
+        <v>'chocolate.jpeg'</v>
+      </c>
+      <c r="D97" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" ref="B98:B100" si="3">_xlfn.CONCAT("'",A98,".jpeg'")</f>
+        <v>'icecream.jpeg'</v>
+      </c>
+      <c r="D98" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>500</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>'key.jpeg'</v>
+      </c>
+      <c r="D99" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>'leaf.jpeg'</v>
+      </c>
+      <c r="D100" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +4503,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I49"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7680,7 +8261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B25"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13461,7 +14042,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20748,7 +21329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD97239-9279-0E46-89FF-3614229366F3}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
